--- a/output_test/severity_with_additional_strata_gender.xlsx
+++ b/output_test/severity_with_additional_strata_gender.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,7 +438,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>admin_1</t>
+          <t>admin_2</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -467,7 +467,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>awdal</t>
+          <t>adan_yabaal</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -481,22 +481,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.2773750991549871</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1581691163845447</v>
+        <v>0.7543429797983283</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01713025910918028</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0009049199404963479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>awdal</t>
+          <t>adan_yabaal</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -510,22 +510,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.330307093880278</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2032680106209197</v>
+        <v>0.2456570202016716</v>
       </c>
       <c r="F3" t="n">
-        <v>0.009327251554131938</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003518249355461834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bakool</t>
+          <t>afgooye</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -539,22 +539,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.250064478315332</v>
+        <v>0.09052562663673776</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2202668598137187</v>
+        <v>0.07579498690609802</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02765866579623423</v>
+        <v>0.2811541339319117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bakool</t>
+          <t>afgooye</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -568,22 +568,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.2695687964266207</v>
+        <v>0.2701833146277591</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2030545745652256</v>
+        <v>0.1449588477366255</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007346656270717196</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02203996881215159</v>
+        <v>0.137383090160868</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>banadir</t>
+          <t>afmadow</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.1954411980735543</v>
+        <v>0.400982460878813</v>
       </c>
       <c r="E6" t="n">
-        <v>0.252857050339371</v>
+        <v>0.06034200442276202</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05269767155333503</v>
+        <v>0.01557166731376289</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>banadir</t>
+          <t>afmadow</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -626,13 +626,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.2191102904358512</v>
+        <v>0.3808040311281419</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2151613611485382</v>
+        <v>0.07564948766859669</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06473242844935023</v>
+        <v>0.06665034858792349</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -641,7 +641,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>bay</t>
+          <t>baardheere</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -655,22 +655,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2094622112971669</v>
+        <v>0.191257018251747</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2315629462092277</v>
+        <v>0.328334945408828</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04672655610441189</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.005284121488301996</v>
+        <v>0.02847554891647541</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>bay</t>
+          <t>baardheere</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -684,22 +684,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.2445923021504333</v>
+        <v>0.1549137778083023</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2285013395342817</v>
+        <v>0.2653171019270502</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02980710185630477</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00175052564121161</v>
+        <v>0.03170160768759694</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>bay</t>
+          <t>badhaadhe</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -709,14 +709,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>pnta</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.002312895718660235</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.1321597042785814</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>galgaduud</t>
+          <t>badhaadhe</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -738,26 +738,26 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.2461881201795413</v>
+        <v>0.5720820957968202</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2078940140993847</v>
+        <v>0.2957581999245984</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003661557887757457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>galgaduud</t>
+          <t>baki</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -767,26 +767,26 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.3378702794850377</v>
+        <v>0.306985179412836</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1942553457729473</v>
+        <v>0.1645316633507907</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001820317349913707</v>
+        <v>0.02150857121297211</v>
       </c>
       <c r="G12" t="n">
-        <v>0.004842397610450056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>galgaduud</t>
+          <t>baki</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -796,14 +796,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>pnta</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.003467967614967839</v>
+        <v>0.3162431487616618</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.1907314372617394</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>gedo</t>
+          <t>ballanbale</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -829,22 +829,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.1511214707175244</v>
+        <v>0.1727442260139042</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3787397268176062</v>
+        <v>0.3990255184360759</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0489761134989363</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.008901421781203048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>gedo</t>
+          <t>ballanbale</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -858,22 +858,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.09851038521462921</v>
+        <v>0.283125288527902</v>
       </c>
       <c r="E15" t="n">
-        <v>0.251920037559508</v>
+        <v>0.1451049670221178</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04237809584190823</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01945274856868471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hiraan</t>
+          <t>banadir</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -887,22 +887,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.1535998261153573</v>
+        <v>0.184076561838408</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2709420591529794</v>
+        <v>0.2594972541924888</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02644610611103316</v>
+        <v>0.06697717387120367</v>
       </c>
       <c r="G16" t="n">
-        <v>0.007892085718688688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hiraan</t>
+          <t>banadir</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -916,22 +916,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.2682268366565387</v>
+        <v>0.1777830170522345</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2278601838669093</v>
+        <v>0.2305115028805317</v>
       </c>
       <c r="F17" t="n">
-        <v>0.006232016394837742</v>
+        <v>0.08115449016513337</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03880088598365576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>lower_juba</t>
+          <t>baraawe</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -945,13 +945,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.2204674385946492</v>
+        <v>0.1430161380077908</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2257253640354619</v>
+        <v>0.2438235633813169</v>
       </c>
       <c r="F18" t="n">
-        <v>0.009240742442039779</v>
+        <v>0.1846683676147877</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -960,7 +960,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>lower_juba</t>
+          <t>baraawe</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.2847043585823124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2295322332976789</v>
+        <v>0.4284919309961046</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02688719330135377</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.003442669746504013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>lower_shabelle</t>
+          <t>baydhaba</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1003,22 +1003,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.2119603485679166</v>
+        <v>0.3270507573415014</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2670234155911287</v>
+        <v>0.1117131111539062</v>
       </c>
       <c r="F20" t="n">
-        <v>0.005711103242148335</v>
+        <v>0.04632501198296322</v>
       </c>
       <c r="G20" t="n">
-        <v>0.009172090145752185</v>
+        <v>0.009781074754858034</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>lower_shabelle</t>
+          <t>baydhaba</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1032,22 +1032,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.1756939271958137</v>
+        <v>0.3520588522963852</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3189351665303166</v>
+        <v>0.1189393391722309</v>
       </c>
       <c r="F21" t="n">
-        <v>0.003783207362093035</v>
+        <v>0.02426420960739013</v>
       </c>
       <c r="G21" t="n">
-        <v>0.007720741364830892</v>
+        <v>0.00542225289428809</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>middle_shabelle</t>
+          <t>baydhaba</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1057,14 +1057,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>pnta</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.004445390796476735</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6781724163961652</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1076,7 +1076,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>middle_shabelle</t>
+          <t>belet_weyne</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1086,26 +1086,26 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.1883798246482136</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3218275836038348</v>
+        <v>0.2391136602569895</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.02341418218169979</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.00915340341094077</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>mudug</t>
+          <t>belet_weyne</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1115,26 +1115,26 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.2634928467358253</v>
+        <v>0.2914416682084888</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2437289105951999</v>
+        <v>0.2075923623152862</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01912154842689849</v>
+        <v>0.007511900715262033</v>
       </c>
       <c r="G24" t="n">
-        <v>0.006337487906931305</v>
+        <v>0.03339299826311947</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>mudug</t>
+          <t>berbera</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.2454937888827799</v>
+        <v>0.2286928245255256</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2103070974446928</v>
+        <v>0.2490035673473544</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01151832000767254</v>
+        <v>0.01264575993773651</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>nugaal</t>
+          <t>berbera</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1173,17 +1173,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.09933395130676431</v>
+        <v>0.1717241473172812</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3945954672992258</v>
+        <v>0.3379337008721022</v>
       </c>
       <c r="F26" t="n">
-        <v>0.002612473083610654</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>nugaal</t>
+          <t>borama</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1202,17 +1202,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.1332541195030112</v>
+        <v>0.3312086665178552</v>
       </c>
       <c r="E27" t="n">
-        <v>0.370203988807388</v>
+        <v>0.1426068050613409</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.02526211609921348</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sanaag</t>
+          <t>borama</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1231,17 +1231,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.2758203811942886</v>
+        <v>0.3070954625629713</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.1757589385364829</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00522636153099086</v>
+        <v>0.01806801122213614</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1250,7 +1250,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sanaag</t>
+          <t>burco</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1260,26 +1260,26 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.3400407863421784</v>
+        <v>0.1770940333901355</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1803268895774561</v>
+        <v>0.2641264582861637</v>
       </c>
       <c r="F29" t="n">
-        <v>0.006252097422379067</v>
+        <v>0.005718150076861661</v>
       </c>
       <c r="G29" t="n">
-        <v>0.001857293456516506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sool</t>
+          <t>burco</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1289,17 +1289,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.3280026225586129</v>
+        <v>0.1467193774801292</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1238555977921023</v>
+        <v>0.389851281623509</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01278774549884492</v>
+        <v>0.01649069914320102</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sool</t>
+          <t>burtinle</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1318,26 +1318,26 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.3356774530132134</v>
+        <v>0.06349690629149488</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1924914012270372</v>
+        <v>0.4431324690766404</v>
       </c>
       <c r="F31" t="n">
-        <v>0.004613908120003541</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.002571271790185607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>togdheer</t>
+          <t>burtinle</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1347,26 +1347,26 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.2951338898526319</v>
+        <v>0.09071440392091967</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1869620935398331</v>
+        <v>0.4026562207109451</v>
       </c>
       <c r="F32" t="n">
-        <v>0.02566170816450898</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.001369693605554519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>togdheer</t>
+          <t>buuhoodle</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1376,26 +1376,26 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.2565328303176912</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2195192716784287</v>
+        <v>0.5873980689379159</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01296373278350538</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.001856780057846257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>woqooyi_galbeed</t>
+          <t>buuhoodle</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1405,17 +1405,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.2447460799663649</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2040243082545624</v>
+        <v>0.4126019310620841</v>
       </c>
       <c r="F34" t="n">
-        <v>0.03226883478617791</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>woqooyi_galbeed</t>
+          <t>buur_hakaba</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1434,20 +1434,2079 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.2627188893803898</v>
+        <v>0.01477974613419698</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2463068908460704</v>
+        <v>0.4506720338684418</v>
       </c>
       <c r="F35" t="n">
-        <v>0.009934996766434613</v>
+        <v>0.03572379780881146</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>buur_hakaba</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.01477974613419698</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.4757693294248478</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.008275346629504915</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>cabudwaaq</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.2692377175278393</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.05839131723427377</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>cabudwaaq</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5571733024713138</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.1044175969965986</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>cabudwaaq</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>pnta</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.01078006576997445</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>cadaado</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.3131241392287636</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.234183957750181</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>cadaado</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.2006859079164229</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.2188755005377875</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.01342674996943141</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.01970374459741349</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>caynabo</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.3677372071831535</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.09490233042809008</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.01161791024985524</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>caynabo</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.3563322448129536</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.1603695708649827</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.005818053151934888</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.00322268330902989</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ceel_afweyn</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.3550517061243819</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.1457779932219063</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.002805500505040468</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ceel_afweyn</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.3696398049695758</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.1218464357912902</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.004878559387805309</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ceel_barde</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.3191369367638537</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.1034052139530416</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ceel_barde</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.1692814933485378</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.1843104201592137</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0559664839438383</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.1678994518315149</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ceel_waaq</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.2085770563693865</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.3884564792126488</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.02468627645888806</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ceel_waaq</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.1154323126320351</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.2215675223392007</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.01442216288049505</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0268581901073459</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ceerigaabo</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.2053661385543588</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.2207179008272254</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ceerigaabo</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.3356232029648135</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.2339106431618392</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.004382114491763098</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>dhuusamarreeb</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0.209512490037285</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.2379598220903388</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.009037071603254275</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>dhuusamarreeb</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0.2879618495319269</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.255528766737195</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>diinsoor</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.1970996050443973</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.2710258612123343</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.08201224169562465</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.02729094271734794</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>diinsoor</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.2180442652832097</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.165317766476382</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.03920931757070417</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>doolow</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.07581126837578078</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.2827898588824161</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.1281809291467749</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.01746356390250058</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>doolow</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.1013415108624787</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.2343109213653284</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.1601019474647206</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>eyl</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0.1704268554050382</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.2408230519645636</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>eyl</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0.2042126125550152</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.384537480075383</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>gaalkacyo</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0.2670479884711517</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.2687936746524127</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.01763165041639285</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.01422067281213265</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>gaalkacyo</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.2653147014814634</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.1649178473563523</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.002073464810094382</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>galdogob</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0.4083038031601665</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.1022237534485118</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.008701100869589654</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>galdogob</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0.3766386448786118</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0979036482796343</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.006229049363485769</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>garbahaarey</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.03389830508474576</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.551224978561594</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.03080809978851995</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>garbahaarey</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0.03389830508474576</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.3501703114803945</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>garoowe</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0.1555650695113394</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.3380141995790074</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.02082485996646331</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>garoowe</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0.2277712369331763</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.2578246340100134</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>gebiley</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0.3029462863177795</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.1568495752869295</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.03082054424140673</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>gebiley</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0.3348977695635568</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.1611128298719059</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.01337299471842163</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>hargeysa</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0.1648725475243118</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.2557213655225274</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.04751881156739327</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>hargeysa</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0.2178725722010686</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.3017604636138248</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.01225423957087418</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>hobyo</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0.2003878296745547</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.3270338934267424</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.007008685357067066</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.004987915763463421</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>hobyo</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0.1967075717858637</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.2590425573045408</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0048315466877679</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>jalalaqsi</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.4644801883091408</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>jalalaqsi</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.535519811690859</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>jamaame</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.4431708405785514</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>jamaame</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0.02899086602842124</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.4710957434759725</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.02837127495852737</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02837127495852737</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>jariiban</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0.2280650687974868</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.2411283921297459</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.04524561093462705</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>jariiban</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0.1952969353252317</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.2626011355416626</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.02766285727124597</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>jowhar</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>kismaayo</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0.0960168522338163</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.4013368943306153</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.01982536247675131</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>kismaayo</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0.1560487120102573</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.3267721789485598</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>laas_caanood</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0.182215881380977</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.2496542462203653</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.03032806574417132</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>laas_caanood</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0.2260938557733602</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.2224470632765812</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.08926088760454502</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>lughaye</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0.2525684799888891</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.1294950719004764</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0106057642304738</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>lughaye</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0.4018703082600069</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.1956349225281445</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.006455060280625755</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.003370392811383637</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>marka</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0.3112927072284897</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.1684279883007103</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>marka</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0.2635964066467393</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.2566828978240607</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>owdweyne</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0.313596156296696</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.1617560530706029</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.03682674794919287</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>owdweyne</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0.2853678802582257</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.1801390355752982</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.01778410084907904</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.004530026000905264</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>qansax_dheere</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.2732415417579143</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.1356818859053736</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>qansax_dheere</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0.1127040360229116</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.2686440798217774</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.209728456492023</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>qoryooley</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0.1264410980751864</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.370692487159106</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.006826576109431342</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>qoryooley</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0.1056425213628417</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.3832042265768824</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.00719309071655216</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>sheikh</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0.3002182353828017</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.1658278203683768</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.01576689735381213</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.00386899098000433</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>sheikh</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0.3278212510631958</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.1747330668091205</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.01176373804268883</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>taleex</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.5319478005044489</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>taleex</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0.04134665925497358</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.4267055402405776</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>waajid</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.3484130308575292</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>waajid</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0.4992614475627769</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.1523255215796938</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>wanla_weyn</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>xudun</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>xudur</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0.2327937272575205</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.2421776371899878</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.04834251346264776</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>xudur</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0.2405588939738195</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.2361272281160244</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>zeylac</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0.2533290408047827</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.202901155047364</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.02256943868235178</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.005002629094714262</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>zeylac</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0.282551108510728</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.2067374048820084</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.01616857688928548</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.01074064608876525</v>
       </c>
     </row>
   </sheetData>
@@ -1461,7 +3520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1472,7 +3531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>admin_1</t>
+          <t>admin_2</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -1501,7 +3560,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>banadir</t>
+          <t>afgooye</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1515,22 +3574,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.07024120842737366</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4186542012180551</v>
+        <v>0.2586712142150089</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05550765066329767</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005654031278072381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>banadir</t>
+          <t>afgooye</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1544,22 +3603,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.08251703903345603</v>
+        <v>0.1248321621436202</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3211861333314813</v>
+        <v>0.3846304626934423</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03933426934163341</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006905466706630416</v>
+        <v>0.2318661609479286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gedo</t>
+          <t>baardheere</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1573,13 +3632,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.06571565586867339</v>
+        <v>0.147947441442912</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3106672502287828</v>
+        <v>0.260604205772736</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0266456137558714</v>
+        <v>0.05711390407791291</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1588,7 +3647,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>gedo</t>
+          <t>baardheere</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1602,22 +3661,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.1541113556580745</v>
+        <v>0.2163170924127425</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3911506574497358</v>
+        <v>0.2927840800892299</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02596153376318686</v>
+        <v>0.02523327620446694</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02574793327567516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lower_juba</t>
+          <t>balcad</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1631,22 +3690,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.047875554303014</v>
+        <v>0.05619341417371614</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3370738778900084</v>
+        <v>0.5755503187432767</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.0771681030693952</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02338480852126794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lower_juba</t>
+          <t>balcad</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1660,13 +3719,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.10792068849932</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4102728334411516</v>
+        <v>0.291088164013612</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07347223734523818</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1675,7 +3734,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>lower_shabelle</t>
+          <t>banadir</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1689,22 +3748,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.3555004645076293</v>
+        <v>0.06272746102363394</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1304587031301463</v>
+        <v>0.4205891871599142</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09102134076545541</v>
+        <v>0.05411813949072895</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.006784023681405696</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>lower_shabelle</t>
+          <t>banadir</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1718,22 +3777,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.1604471384409972</v>
+        <v>0.0793719767155858</v>
       </c>
       <c r="E9" t="n">
-        <v>0.148362555220283</v>
+        <v>0.3366692845091329</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1009709612575529</v>
+        <v>0.03530052687675572</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01323883667793596</v>
+        <v>0.004439400542842717</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>middle_shabelle</t>
+          <t>baraawe</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1747,13 +3806,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.07485516124343294</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5062732313059369</v>
+        <v>0.2430661165087545</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05502834478891958</v>
+        <v>0.1763757295426764</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1762,7 +3821,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>middle_shabelle</t>
+          <t>baraawe</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1779,10 +3838,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3638432626617107</v>
+        <v>0.510699959254647</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.06985819469392204</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1791,7 +3850,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mudug</t>
+          <t>belet_xaawo</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1805,13 +3864,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.1679696894872033</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3171796984982635</v>
+        <v>0.1782099355439551</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01947318969083405</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1820,7 +3879,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>mudug</t>
+          <t>belet_xaawo</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1834,15 +3893,247 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.2161243462171185</v>
+        <v>0.1765066294145038</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2597798864157466</v>
+        <v>0.2214543048305271</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01947318969083405</v>
+        <v>0.1412763767370046</v>
       </c>
       <c r="G13" t="n">
+        <v>0.2825527534740093</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>gaalkacyo</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1050044177928417</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.3680122829125567</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.02737583105201408</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>gaalkacyo</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1704934891872709</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.3017381480033025</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.02737583105201408</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>kismaayo</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.06494365341790943</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.2970942708684797</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0408772521762602</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>kismaayo</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1332937445171739</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3915918752952291</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0721992037249477</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>luuq</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.4285701542331606</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>luuq</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.04877359808985189</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5226562476769876</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>wanla_weyn</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.435485776841579</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.1156573395091207</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.08509187997253906</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>wanla_weyn</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1762052502004397</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.07666023111350698</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1108995223628148</v>
+      </c>
+      <c r="G21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1857,7 +4148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1868,7 +4159,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>admin_1</t>
+          <t>admin_2</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -1897,7 +4188,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bakool</t>
+          <t>afgooye</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1911,22 +4202,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.3014388416956645</v>
+        <v>0.03723344403084933</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1845503267385207</v>
+        <v>0.4057352869620223</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02345888951990771</v>
+        <v>0.01720677322823152</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002631272882306423</v>
+        <v>0.00759296766659368</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>bakool</t>
+          <t>afgooye</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1940,22 +4231,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.2872733151284584</v>
+        <v>0.01922304941245165</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1582110324911338</v>
+        <v>0.4724852808797412</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03522413280897937</v>
+        <v>0.01205508113762986</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007212188735029007</v>
+        <v>0.0284681166824806</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>banadir</t>
+          <t>afmadow</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1969,22 +4260,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.09346022837371859</v>
+        <v>0.1719074251575019</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3557395764510323</v>
+        <v>0.3819782428647205</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04883817030207806</v>
+        <v>0.1465223281171689</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005849887820924375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>banadir</t>
+          <t>afmadow</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1998,13 +4289,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.07148737080729246</v>
+        <v>0.05019455925382837</v>
       </c>
       <c r="E5" t="n">
-        <v>0.394244898245057</v>
+        <v>0.1904194689536075</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03037986799989728</v>
+        <v>0.05897797565317271</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2013,7 +4304,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>bay</t>
+          <t>baardheere</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2027,22 +4318,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.1138617468816243</v>
+        <v>0.1480074698267415</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2909853857663407</v>
+        <v>0.4262679475477317</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1535475874329346</v>
+        <v>0.02888008140518256</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01420863599912968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bay</t>
+          <t>baardheere</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2056,22 +4347,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.09123197539465855</v>
+        <v>0.05034692566537313</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2208989694038436</v>
+        <v>0.346497575554971</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1078552923791981</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007410406742270528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>galgaduud</t>
+          <t>ballanbale</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2085,10 +4376,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2478512963274722</v>
+        <v>0.4088667452186059</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2673350953546265</v>
+        <v>0.1987507120395152</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2100,7 +4391,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>galgaduud</t>
+          <t>ballanbale</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2114,22 +4405,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.2502142782615264</v>
+        <v>0.3244286126739132</v>
       </c>
       <c r="E9" t="n">
-        <v>0.230864903237122</v>
+        <v>0.06795393006796563</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003734426819252846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>gedo</t>
+          <t>banadir</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2143,22 +4434,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.1422401919568395</v>
+        <v>0.08888122937268564</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3460505153499648</v>
+        <v>0.3667195689480815</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04764506365649463</v>
+        <v>0.04448296623185747</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004102928409885479</v>
+        <v>0.006288911215674718</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>gedo</t>
+          <t>banadir</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2172,22 +4463,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.1479092278630519</v>
+        <v>0.07599275072936167</v>
       </c>
       <c r="E11" t="n">
-        <v>0.25574672030264</v>
+        <v>0.3913320347090273</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05275136894685791</v>
+        <v>0.02630253879331179</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003553983514265736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hiraan</t>
+          <t>baraawe</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2201,22 +4492,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.0772466218768587</v>
+        <v>0.2645572626777431</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1070072102341643</v>
+        <v>0.1716749987838066</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1345864589357315</v>
+        <v>0.07918477840956244</v>
       </c>
       <c r="G12" t="n">
-        <v>0.007376444553725105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>hiraan</t>
+          <t>baraawe</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2230,22 +4521,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.167759854833769</v>
+        <v>0.2563981788576939</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3735159541369216</v>
+        <v>0.1711796503658596</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09735258443419098</v>
+        <v>0.05700513090533438</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03515487099463868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>lower_juba</t>
+          <t>baydhaba</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2259,22 +4550,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.2073589951859263</v>
+        <v>0.1738439935851105</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2484953543197892</v>
+        <v>0.2601777965973829</v>
       </c>
       <c r="F14" t="n">
-        <v>0.09522475582938765</v>
+        <v>0.06031018278541513</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00431998732095806</v>
+        <v>0.01388010775846335</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>lower_juba</t>
+          <t>baydhaba</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2288,22 +4579,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2299328406997246</v>
+        <v>0.1545258311248689</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1618364799809814</v>
+        <v>0.2341527162287458</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0485115993422747</v>
+        <v>0.08074924741859101</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00431998732095806</v>
+        <v>0.02236012450142242</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>lower_shabelle</t>
+          <t>belet_weyne</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2317,22 +4608,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.1347955507132541</v>
+        <v>0.09488946505931441</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3436474016266755</v>
+        <v>0.1322374608114934</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03753596675703753</v>
+        <v>0.225311354215128</v>
       </c>
       <c r="G16" t="n">
-        <v>0.002643322269237591</v>
+        <v>0.01709829570239135</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>lower_shabelle</t>
+          <t>belet_weyne</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2346,22 +4637,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.1247770542478526</v>
+        <v>0.2167640201218301</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3233918970278967</v>
+        <v>0.1318456891055725</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02791780474827071</v>
+        <v>0.1492396273453023</v>
       </c>
       <c r="G17" t="n">
-        <v>0.005291002609775255</v>
+        <v>0.03261408763896786</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>mudug</t>
+          <t>belet_xaawo</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2375,22 +4666,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.2616175979081642</v>
+        <v>0.2918546909744492</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2318504479059257</v>
+        <v>0.08178183675585581</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00315795282471748</v>
+        <v>0.06196333862041685</v>
       </c>
       <c r="G18" t="n">
-        <v>0.002089915293934179</v>
+        <v>0.02236705161243246</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>mudug</t>
+          <t>belet_xaawo</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2404,22 +4695,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.2662640007839062</v>
+        <v>0.4097333543280476</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2185223066787862</v>
+        <v>0.1111631711747695</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01514908043148624</v>
+        <v>0.02113655653402872</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001348698173079693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>nugaal</t>
+          <t>bulo_burto</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2433,10 +4724,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.1802349452619334</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4042801651174868</v>
+        <v>0.3109355386546556</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2448,7 +4739,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>nugaal</t>
+          <t>bulo_burto</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2462,22 +4753,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.1277763336510412</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2877085559695385</v>
+        <v>0.4900370249258974</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.1990274364194471</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>sanaag</t>
+          <t>buuhoodle</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2491,10 +4782,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.248805838859383</v>
+        <v>0.2053937460677489</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3244030638701076</v>
+        <v>0.1942341678054332</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2506,7 +4797,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>sanaag</t>
+          <t>buuhoodle</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2520,22 +4811,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.133311282096466</v>
+        <v>0.2822755160515991</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2739370268673619</v>
+        <v>0.3069420010499361</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.01115456902528262</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01954278830668167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>sool</t>
+          <t>buur_hakaba</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2549,13 +4840,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.05392177724815934</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3063914542281994</v>
+        <v>0.5540711934670571</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1835774779759118</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2564,7 +4855,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>sool</t>
+          <t>buur_hakaba</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2578,13 +4869,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.09160999276503384</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3173971145252585</v>
+        <v>0.4459288065329429</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04710218325743712</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2593,7 +4884,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>togdheer</t>
+          <t>cabudwaaq</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2607,10 +4898,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.2060825157214125</v>
+        <v>0.215460674319076</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1968536865466067</v>
+        <v>0.1740113238380108</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2622,7 +4913,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>togdheer</t>
+          <t>cabudwaaq</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2636,15 +4927,1175 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.2613705600626272</v>
+        <v>0.2535355498684405</v>
       </c>
       <c r="E27" t="n">
-        <v>0.318741253060275</v>
+        <v>0.3325828501085231</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01695198460907872</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
+        <v>0.02440960186594966</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>cadaado</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.312575998295863</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.2434933624456732</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>cadaado</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.312163277623439</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.1317673616350248</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ceel_barde</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.2566012284766125</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.2288195201153491</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.1041209843925424</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01267105354212134</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ceel_barde</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.1747527089179718</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.1058499820799822</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.09055961065533558</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.02662491182008508</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ceel_waaq</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.09564127701135949</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.3192989146872364</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.07235844197789595</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ceel_waaq</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.1201261628758348</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.2276999042465012</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1591547233298679</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.005720575871304378</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>dhuusamarreeb</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.1321831454441244</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.3782387621243367</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>dhuusamarreeb</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.1640929807392828</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.3254851116922561</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>diinsoor</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.1904005337553289</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.2561906437232238</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1100022356611074</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.009930820655826629</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>diinsoor</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.1541610979548957</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.08219103198537217</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.1971236362642453</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>gaalkacyo</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.2074004449556349</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.3385428046496352</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.004007532273483273</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>gaalkacyo</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.2272287747138409</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.2228204434074056</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>galdogob</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.2672147750280798</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.2293633246450165</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.003461661119383737</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.002098257364811246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>galdogob</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.239968125441386</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.234821677996089</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.02098731198089504</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.002084866424338714</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>garbahaarey</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.03591630466180004</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.6634841087108325</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.03642530827670726</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.02058449880671604</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>garbahaarey</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.01795815233090002</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.2256316272130439</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>garoowe</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.1513123766850681</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.4216430589125407</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>garoowe</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.1171913757132728</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.3098531886891184</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>hobyo</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.3367469669995641</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.1108906534489132</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>hobyo</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.4037063309814554</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.1486560485700674</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>jalalaqsi</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.02677575202286633</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>jalalaqsi</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.02324293788486454</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9499813100922692</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>kismaayo</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.2288308671718493</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.1842760391024915</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.06705888846824415</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.01023504872757442</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>kismaayo</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.2969814495665841</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.1507669456489195</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.05161571258676263</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.01023504872757442</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>laas_caanood</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0.246171618353128</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.3076687965536744</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>laas_caanood</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0.1307858922060575</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.29277162075978</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02260207212736002</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>luuq</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.09578164520071016</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.3966505104097373</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.01415900563912718</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>luuq</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.1203216790598323</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.3548085695245862</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.00913929508300357</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.00913929508300357</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>marka</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.03388434744730709</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.4942386752768584</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>marka</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.03533557990476826</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.4365413973710663</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>qansax_dheere</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.1289891287060923</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.5286572123518889</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03818206160130323</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>qansax_dheere</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0798827600273512</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.2102259708822919</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.01406286643107255</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>taleex</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0.07404832892253749</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.2252018357843958</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.3335510814824741</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>taleex</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.1552013891215258</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.1415307136556006</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.07046665103346622</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>waajid</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0.2939296714124198</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.1899816407759076</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>waajid</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0.3223629880877699</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.1765298762701712</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.01719582345373157</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>wanla_weyn</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.3270351737524111</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.07380925026756723</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.1321101832759903</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02376208587547391</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>wanla_weyn</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0.2395860417586272</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.06443835069748879</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.1114077361696467</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02785117820279479</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>xudun</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.4730445984432839</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>xudun</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.5269554015567162</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
         <v>0</v>
       </c>
     </row>

--- a/output_test/severity_with_additional_strata_gender.xlsx
+++ b/output_test/severity_with_additional_strata_gender.xlsx
@@ -7,10 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="idp" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ndsp" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ocap" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ret" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Host Community" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="New IDPs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Protracted IDPs" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,17 +438,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>admin1</t>
+          <t>admin_2</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>pop_group</t>
+          <t>place_of_origin</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ind_gender</t>
+          <t>edu_ind_gender</t>
         </is>
       </c>
       <c r="D1" s="1" t="n">
@@ -468,12 +467,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MMR001</t>
+          <t>adan_yabaal</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -482,13 +481,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.4087978494585013</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09810198420755985</v>
+        <v>0.718483016133976</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01031665741258184</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -497,12 +496,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MMR001</t>
+          <t>adan_yabaal</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +510,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.318281818927808</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.149749660533814</v>
+        <v>0.2815169838660239</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01475202945973515</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -526,12 +525,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MMR002</t>
+          <t>afgooye</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,27 +539,27 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1854766544651497</v>
+        <v>0.1239165626011748</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2552046293930336</v>
+        <v>0.1681513343508626</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007954588601587121</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.007526663239158968</v>
+        <v>0.2593034549743305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MMR002</t>
+          <t>afgooye</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,42 +568,42 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.1849922881076771</v>
+        <v>0.2432912446232829</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3054414763322384</v>
+        <v>0.09277091716386844</v>
       </c>
       <c r="F5" t="n">
-        <v>0.008407655861807816</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0405797926870942</v>
+        <v>0.1125664862864807</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MMR002</t>
+          <t>afmadow</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>pnta</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.3977623542571369</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004416251312253135</v>
+        <v>0.05387333519190938</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.01265656080194706</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -613,99 +612,99 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MMR003</t>
+          <t>afmadow</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.2327820471942374</v>
+        <v>0.4131434963236112</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2174086015854783</v>
+        <v>0.06151259584351702</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006856392319628393</v>
+        <v>0.06105165758187855</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01322790129657935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MMR003</t>
+          <t>baardheere</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2295996778620771</v>
+        <v>0.1545620064471014</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2434830099004538</v>
+        <v>0.3233656256928928</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02476548120641813</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02227755251264034</v>
+        <v>0.03067276696628063</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MMR003</t>
+          <t>baardheere</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.1707138715014241</v>
       </c>
       <c r="E9" t="n">
-        <v>0.009599336122487206</v>
+        <v>0.2974748852995855</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.02321084409271545</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MMR004</t>
+          <t>badhaadhe</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -714,27 +713,27 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.1085658792870177</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3979607790898576</v>
+        <v>0.1101872167654356</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01415990792800186</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004959199212940202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MMR004</t>
+          <t>badhaadhe</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -743,13 +742,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.120480996039301</v>
+        <v>0.62395164763057</v>
       </c>
       <c r="E11" t="n">
-        <v>0.347695688273746</v>
+        <v>0.2658611356039945</v>
       </c>
       <c r="F11" t="n">
-        <v>0.006177550169135448</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -758,12 +757,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MMR005</t>
+          <t>baki</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -772,27 +771,27 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.005857321694253789</v>
+        <v>0.3167756706369225</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3996521254017138</v>
+        <v>0.1501060668474466</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01135859441133727</v>
+        <v>0.01793994611848207</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03259554648040319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MMR005</t>
+          <t>baki</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -801,27 +800,27 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.0216958128218925</v>
+        <v>0.3244180641864134</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4707275070798969</v>
+        <v>0.1907602522107356</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01451837107382265</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04359472103667978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MMR006</t>
+          <t>ballanbale</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -830,27 +829,27 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.1501485087645147</v>
+        <v>0.1909314841647692</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2547223097435582</v>
+        <v>0.4798054233078038</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02578346538381734</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.009075749075902771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MMR006</t>
+          <t>ballanbale</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -859,42 +858,42 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.1641367663897577</v>
+        <v>0.203075967708549</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3436037486455539</v>
+        <v>0.1261871248188781</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03549897407916881</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.009075749075902771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MMR006</t>
+          <t>banadir</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.007954728841823756</v>
+        <v>0.1939568180645827</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.2676528809450118</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.05981281594965439</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -903,27 +902,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MMR007</t>
+          <t>banadir</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.3332589258442417</v>
+        <v>0.2145830109357268</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1643056047661299</v>
+        <v>0.1971372704529041</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01789544140756955</v>
+        <v>0.06685720365212008</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -932,27 +931,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MMR007</t>
+          <t>baraawe</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.322858277838665</v>
+        <v>0.1400468629782472</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1450975756256916</v>
+        <v>0.2868608799048752</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01658417451770243</v>
+        <v>0.1431156886060013</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -961,128 +960,128 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MMR009</t>
+          <t>baraawe</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.1953620369178281</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2375322870063407</v>
+        <v>0.4299765685108765</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0378517372622228</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01322359103929963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MMR009</t>
+          <t>baydhaba</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.2201415599150279</v>
+        <v>0.3275069875781075</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2099988131256237</v>
+        <v>0.1138777910396323</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03948871865846987</v>
+        <v>0.03527258332826223</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04640125607518749</v>
+        <v>0.008299537696168837</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MMR011</t>
+          <t>baydhaba</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.2152468491294854</v>
+        <v>0.3515756468969972</v>
       </c>
       <c r="E21" t="n">
-        <v>0.190750601987886</v>
+        <v>0.133985868794401</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01845894131963018</v>
+        <v>0.02040541509437373</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05163154249829898</v>
+        <v>0.004016313486944571</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MMR011</t>
+          <t>baydhaba</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>pnta</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.2869224288032829</v>
+        <v>0.005059856085112588</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1565653427731904</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0345099310953073</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0459143623929189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MMR012</t>
+          <t>belet_weyne</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1091,27 +1090,27 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.1411790438879451</v>
+        <v>0.1792687176524985</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2767202556331219</v>
+        <v>0.2448315184156182</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06664587644326922</v>
+        <v>0.02359393029685464</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00799492372045379</v>
+        <v>0.00779797667522261</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MMR012</t>
+          <t>belet_weyne</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1120,27 +1119,27 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.1445732644224054</v>
+        <v>0.2850193695177892</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2630355242114062</v>
+        <v>0.2232823366540158</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08816700613203307</v>
+        <v>0.006031194618568974</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01168410554936541</v>
+        <v>0.0301749561694321</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MMR014</t>
+          <t>berbera</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1149,13 +1148,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.2305235814109349</v>
+        <v>0.2308027041567547</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2065842023380599</v>
+        <v>0.2301814985113287</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01846175977302908</v>
+        <v>0.01586761807946161</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1164,12 +1163,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MMR014</t>
+          <t>berbera</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1178,13 +1177,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.2983155125347055</v>
+        <v>0.1715871287430611</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2305830348879655</v>
+        <v>0.3515610505093937</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01553190905530504</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1193,12 +1192,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MMR015</t>
+          <t>borama</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1207,13 +1206,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.09894834511701228</v>
+        <v>0.2931423055138225</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4535011373400208</v>
+        <v>0.1604826277859657</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01500720749295228</v>
+        <v>0.02140041741038891</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1222,12 +1221,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MMR015</t>
+          <t>borama</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>Host Community</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1236,16 +1235,2278 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.06763587130186968</v>
+        <v>0.3144776430942761</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3512290609903024</v>
+        <v>0.1960199186607947</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01367837775784244</v>
+        <v>0.01447708753475223</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>burco</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.1948208559962269</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.2492514085219386</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.005145995142229335</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>burco</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.1420416530069795</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.3920517073491757</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.01668837998344995</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>burtinle</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0473761380004946</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.4512488655644557</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>burtinle</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.08267402915172155</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.4187009672833282</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>buuhoodle</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.5593438366672567</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>buuhoodle</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.4406561633327432</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>buur_hakaba</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.01125855938528975</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.4556754227473583</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.03171978235354662</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>buur_hakaba</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.01125855938528975</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.4802337338164155</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.009853942312100033</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>cabudwaaq</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.2346356870034669</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.05116827295014569</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>cabudwaaq</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5973915435672412</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.1027286807095512</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>cabudwaaq</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>pnta</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.01407581576959496</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>cadaado</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.2946923645658043</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.231678537615127</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>cadaado</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.1936281610791244</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.2534189335215735</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.01187184059362549</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.01471016262474533</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>caynabo</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.3502306141774196</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.09701466501415257</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.01659796760591924</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>caynabo</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.365256520024151</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.1627408017896263</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.005299178833177863</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.002860252555553586</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ceel_afweyn</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.3501437886365192</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.1552381768904494</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.002456834334881882</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ceel_afweyn</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.3678725367084965</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.1196608681517839</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.004627795277869207</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ceel_barde</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.3346359899601168</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.08608782005341321</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ceel_barde</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.1417249701920883</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.1941001224454379</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.06086277433723594</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.1825883230117079</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ceel_waaq</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.1938050306356628</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.3922956614189004</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.02747688688508007</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ceel_waaq</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.1183906210639273</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.2147526237178941</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.02345477842947847</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.02982439784905714</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ceerigaabo</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.1972371764661428</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.2342294683683191</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ceerigaabo</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.323451811530693</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.24100269998597</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.004078843648875169</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>dhuusamarreeb</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0.1930031243807564</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.2513389233780229</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.006634898057237787</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>dhuusamarreeb</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0.2860274218022601</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.2629956323817228</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>diinsoor</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.1772885432671526</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.2709887454187763</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.09423233027894641</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.02420255678292168</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>diinsoor</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.229586894525928</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.1641008960581147</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.03960003366816034</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>doolow</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.06575239783551917</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.3315168327232737</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.1074361625877474</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.01387817408860365</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>doolow</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.09907725051841396</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.2537889357604408</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.1285502464860015</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>eyl</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0.1624916280462973</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.230976733541328</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>eyl</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0.1783722566075329</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.4281593818048418</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>gaalkacyo</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0.2854363313118591</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.2526976667736611</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.01420198128671476</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.01281343284495202</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>gaalkacyo</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.2737604110543873</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.1578464916770704</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.003243685051355288</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>galdogob</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0.4224528737526153</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.09853156718611576</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.006622034934400101</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>galdogob</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0.3596566977603781</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.1060201981982532</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.006716628168237627</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>garbahaarey</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.0506376191736341</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.5535879041890471</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.03029316892795583</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>garbahaarey</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0.0506376191736341</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.3148436885357289</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>garoowe</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0.1723652746846746</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.3469298740750623</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.01079752460513757</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>garoowe</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0.2397140775254262</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.2301932491096994</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>gebiley</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0.3028912319567616</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.1513904176656865</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.02880772108431751</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>gebiley</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0.3337194895965096</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.1708348350521346</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.01235630464459012</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>hargeysa</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0.1680656734661541</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.2517776938776754</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.04331470151313286</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>hargeysa</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0.2309593119005008</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.2976420943516304</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.00824052489090649</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>hobyo</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0.1942626596634486</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.3463451955655736</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.006720129999007641</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.003650905881852592</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>hobyo</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0.1898152086080041</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.2538458335105402</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.005360066771573172</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>jalalaqsi</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.426337482482895</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>jalalaqsi</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.573662517517105</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>jamaame</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.4422191262448972</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>jamaame</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0.02170090831107677</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.49217015166909</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.02195490688746798</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02195490688746798</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>jariiban</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0.2196419562608675</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.244095380370452</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.04717948717948718</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>jariiban</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0.1725774087951738</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.2856535971722218</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.03085217022179773</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>jowhar</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>kismaayo</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0.09530272124137987</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.3578900466416767</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.02421810808932637</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>kismaayo</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0.2359410704285229</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.2866480535990941</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>laas_caanood</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0.1875510019040711</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.2610300117871068</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.03238734246078521</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>laas_caanood</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0.1990878592800798</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.2287786744038444</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0911651101641128</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>lughaye</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0.2592309301857063</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.1292855274167189</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.01422193436042262</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>lughaye</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0.4003524693728384</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.1843289845516569</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.008011586840763132</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.004568567271893796</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>marka</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0.3487762491939443</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.1463497862776389</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>marka</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0.2858765353544165</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.2189974291740003</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>owdweyne</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0.3258938299155259</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.1541287975680651</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.03803305923028049</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>owdweyne</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0.2909132194441109</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.1690463114665171</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.01855062471597221</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.003434157659528496</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>qansax_dheere</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.3333380899378787</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.09949389727636822</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>qansax_dheere</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0.07689526908111913</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.3291950873788255</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.1610776563258084</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>qoryooley</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0.1278255515701483</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.3602444127655661</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.01180293693859407</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>qoryooley</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0.1032482346689557</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.389251663141114</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.007627200915621774</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>sheikh</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0.3241770564687632</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.1595384685095992</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.02159992354009366</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.006855117996902764</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>sheikh</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0.3142528804784684</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.1652706768262894</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.008305876179883352</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>taleex</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.5368346114369248</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>taleex</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0.0358133957236808</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.4273519928393944</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>waajid</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.3116266337320711</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>waajid</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0.4938215802239638</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.1945517860439652</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>wanla_weyn</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>xudun</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>xudur</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0.2563717545995521</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.2313831433618992</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.0472534432157103</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>xudur</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0.2518210115125705</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.213170647310268</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>zeylac</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0.257592988750965</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.1848363379427504</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.02998863719042203</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.007443201821955956</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>zeylac</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Host Community</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0.2722967670926784</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.2213711644413887</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.01653637930201</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.009934523457829424</v>
       </c>
     </row>
   </sheetData>
@@ -1259,7 +3520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1270,17 +3531,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>admin1</t>
+          <t>admin_2</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>pop_group</t>
+          <t>place_of_origin</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ind_gender</t>
+          <t>edu_ind_gender</t>
         </is>
       </c>
       <c r="D1" s="1" t="n">
@@ -1299,12 +3560,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MMR012</t>
+          <t>afgooye</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ndsp</t>
+          <t>New IDPs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1313,27 +3574,27 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.1815903875778953</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2776882237025942</v>
+        <v>0.2857950217460747</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03308731643520995</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001676585250828165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MMR012</t>
+          <t>afgooye</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ndsp</t>
+          <t>New IDPs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1342,44 +3603,537 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.1395294965777509</v>
+        <v>0.07030002211465218</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3319867327467016</v>
+        <v>0.401659417975117</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0309937663022985</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.2422455381641563</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MMR012</t>
+          <t>baardheere</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ndsp</t>
+          <t>New IDPs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.1169872829837956</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003447491406721507</v>
+        <v>0.2456344047375027</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.05931846452348394</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>baardheere</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2509890856608553</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3043674204028225</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.02270334169154005</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>balcad</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.042828092223983</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5489974260092151</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.07381674284824447</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>balcad</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3343577389185575</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>banadir</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.07069109906933688</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4243313190156007</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.04851279885088269</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.004856218483598074</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>banadir</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.08672094921964889</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3261521907938219</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0317932261342227</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.006942198432888124</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>baraawe</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2402309645042481</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1724309967864532</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>baraawe</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5278874231463411</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.05945061556295763</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>belet_xaawo</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1394901176185279</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>belet_xaawo</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2204286407178368</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.2453467927731296</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1315781496301685</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.2631562992603371</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>gaalkacyo</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1491798209220876</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.3216588004662351</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.02573108089010034</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>gaalkacyo</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.2207452204611697</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2569539963703071</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.02573108089010034</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>kismaayo</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.06180048017512271</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.3191355082441832</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03865233202697455</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>kismaayo</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1226697383751721</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3882974967341031</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>luuq</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.3976958211193673</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>luuq</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.07619696866407616</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5261072102165564</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>wanla_weyn</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.41067988793603</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.1288078223130522</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.09345019342586845</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>wanla_weyn</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>New IDPs</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1639710391838828</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.09313274771800677</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1099583094231598</v>
+      </c>
+      <c r="G21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1394,7 +4148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1405,17 +4159,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>admin1</t>
+          <t>admin_2</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>pop_group</t>
+          <t>place_of_origin</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ind_gender</t>
+          <t>edu_ind_gender</t>
         </is>
       </c>
       <c r="D1" s="1" t="n">
@@ -1434,12 +4188,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MMR001</t>
+          <t>afgooye</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1448,27 +4202,27 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.3687923847446027</v>
+        <v>0.03647555434807741</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1228481261142589</v>
+        <v>0.3935322203981595</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01363949394679877</v>
+        <v>0.02481415755277579</v>
       </c>
       <c r="G2" t="n">
-        <v>0.007435901286586845</v>
+        <v>0.0125812157506532</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MMR001</t>
+          <t>afgooye</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1477,27 +4231,27 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.3696569745364362</v>
+        <v>0.02331556799001133</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1039738949662853</v>
+        <v>0.4625446542116581</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01365322440503136</v>
+        <v>0.01283627945154801</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.0339003502971167</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MMR002</t>
+          <t>afmadow</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1506,13 +4260,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1739191569875246</v>
+        <v>0.1589036812267281</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3455078556708563</v>
+        <v>0.3753090852235548</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01901608770534092</v>
+        <v>0.1598510600103077</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1521,12 +4275,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MMR002</t>
+          <t>afmadow</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1535,13 +4289,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.1377559213536685</v>
+        <v>0.05237800181831869</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3025958314574287</v>
+        <v>0.1777748180233602</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02120514682518094</v>
+        <v>0.07578335369773057</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1550,12 +4304,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MMR003</t>
+          <t>baardheere</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1564,13 +4318,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.2741035738774522</v>
+        <v>0.1535830358569982</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2264578584331709</v>
+        <v>0.4091853588363791</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03348741335638668</v>
+        <v>0.02876983069854294</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1579,12 +4333,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MMR003</t>
+          <t>baardheere</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1593,39 +4347,39 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.267184052647215</v>
+        <v>0.0400173538433435</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1674951459864806</v>
+        <v>0.3684444207647362</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02165509541181324</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006304233657215831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MMR003</t>
+          <t>ballanbale</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>pnta</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.003312626630265672</v>
+        <v>0.4401036607493045</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.1725650903732593</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1637,85 +4391,85 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MMR004</t>
+          <t>ballanbale</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.1646836557585499</v>
+        <v>0.3334005344320102</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3349213472324679</v>
+        <v>0.05393071444542599</v>
       </c>
       <c r="F9" t="n">
-        <v>0.008921369649534078</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002913803474562234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MMR004</t>
+          <t>banadir</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.1431072295453611</v>
+        <v>0.0887434150999948</v>
       </c>
       <c r="E10" t="n">
-        <v>0.316846964916046</v>
+        <v>0.3607308013608129</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0230515937081107</v>
+        <v>0.05146271437423105</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005554035715368019</v>
+        <v>0.006363390324682299</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MMR005</t>
+          <t>banadir</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.1447227135493567</v>
+        <v>0.07250484413176414</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3270541793208495</v>
+        <v>0.390137999710126</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02760868320854729</v>
+        <v>0.0300568349983888</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1724,56 +4478,56 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MMR005</t>
+          <t>baraawe</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.08233727103219565</v>
+        <v>0.2598736889294379</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3848063742574442</v>
+        <v>0.1799353413869118</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02718079895813839</v>
+        <v>0.07269876598771328</v>
       </c>
       <c r="G12" t="n">
-        <v>0.006289979673468294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MMR006</t>
+          <t>baraawe</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.3179677799341021</v>
+        <v>0.2724169461953598</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1412937879604081</v>
+        <v>0.167135831244347</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02607039264906933</v>
+        <v>0.04793942625623011</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1782,172 +4536,172 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MMR006</t>
+          <t>baydhaba</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.4157588032300388</v>
+        <v>0.1695143036552764</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08743004530936394</v>
+        <v>0.2590327290389309</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01147919091701758</v>
+        <v>0.05131793716202553</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.01165646071247848</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MMR007</t>
+          <t>baydhaba</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.4468529089328243</v>
+        <v>0.152600704176975</v>
       </c>
       <c r="E15" t="n">
-        <v>0.09725140076164618</v>
+        <v>0.2550450052102129</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.0775625104615465</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.02327034958255406</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MMR007</t>
+          <t>belet_weyne</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.3413976223622208</v>
+        <v>0.09493677052806163</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1006487305623263</v>
+        <v>0.1540187875054536</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01384933738098251</v>
+        <v>0.2054446307725785</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.015140213424503</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MMR008</t>
+          <t>belet_weyne</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.3476468794678624</v>
+        <v>0.1924447249591046</v>
       </c>
       <c r="E17" t="n">
-        <v>0.09078081921613175</v>
+        <v>0.1737806363328314</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03500668039615364</v>
+        <v>0.1355636414026647</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.0286705950748025</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MMR008</t>
+          <t>belet_xaawo</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.3963684160935806</v>
+        <v>0.2883320243435965</v>
       </c>
       <c r="E18" t="n">
-        <v>0.09339679563371883</v>
+        <v>0.08258484890742107</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03680040919255283</v>
+        <v>0.05061491207851915</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.02286818316800564</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MMR009</t>
+          <t>belet_xaawo</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.4090453148224384</v>
+        <v>0.4176647863938284</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1167003257795538</v>
+        <v>0.1160179159390153</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.021917329169614</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1956,27 +4710,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MMR009</t>
+          <t>bulo_burto</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.3659972268772059</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0919690788953897</v>
+        <v>0.2722750723817402</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01628805362541219</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1985,56 +4739,56 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MMR010</t>
+          <t>bulo_burto</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.401480314869502</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09869665938194998</v>
+        <v>0.4148181204693385</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02628718629264501</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.005844972484602758</v>
+        <v>0.3129068071489213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MMR010</t>
+          <t>buuhoodle</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.355654592554158</v>
+        <v>0.2020279817518279</v>
       </c>
       <c r="E22" t="n">
-        <v>0.103614325366438</v>
+        <v>0.2035050878561728</v>
       </c>
       <c r="F22" t="n">
-        <v>0.008421949050704329</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2043,85 +4797,85 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MMR011</t>
+          <t>buuhoodle</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.4194476950620618</v>
+        <v>0.263251282059822</v>
       </c>
       <c r="E23" t="n">
-        <v>0.07091580733672732</v>
+        <v>0.3231207072124244</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0405156979826167</v>
+        <v>0.008094941119753006</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03432152108900691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MMR011</t>
+          <t>buur_hakaba</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.2861326985460571</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.06988161083939282</v>
+        <v>0.528899275184161</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03875669710578344</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04002827203835396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MMR012</t>
+          <t>buur_hakaba</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.2625581459507223</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2642386097951703</v>
+        <v>0.471100724815839</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01963898151141572</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2130,114 +4884,114 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MMR012</t>
+          <t>cabudwaaq</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.1952536137070566</v>
+        <v>0.2240344189120601</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2298418665844559</v>
+        <v>0.1492292586051233</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02601772656330144</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.002451055887877652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MMR013</t>
+          <t>cabudwaaq</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.3204219073963698</v>
+        <v>0.2680194104448939</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1008213235930901</v>
+        <v>0.3306163559403772</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03474005216531922</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.02810055609754555</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MMR013</t>
+          <t>cadaado</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.3423086401357113</v>
+        <v>0.3082700017430712</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1613305786071248</v>
+        <v>0.2560057521352623</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03655424887544001</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00382324922694461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MMR014</t>
+          <t>cadaado</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.447945204179979</v>
+        <v>0.3099564232177096</v>
       </c>
       <c r="E29" t="n">
-        <v>0.06523296097016794</v>
+        <v>0.1257678229039568</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00836299337487004</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2246,85 +5000,85 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MMR014</t>
+          <t>ceel_barde</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.3805517716341228</v>
+        <v>0.2790416109093226</v>
       </c>
       <c r="E30" t="n">
-        <v>0.06913841057592339</v>
+        <v>0.2210183633767022</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0287686592649369</v>
+        <v>0.08988271278689261</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.01755934643021804</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MMR015</t>
+          <t>ceel_barde</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.2648566909984608</v>
+        <v>0.161230559897444</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2219898129745894</v>
+        <v>0.1120713244196551</v>
       </c>
       <c r="F31" t="n">
-        <v>0.04126103471964556</v>
+        <v>0.08565358852392037</v>
       </c>
       <c r="G31" t="n">
-        <v>0.006762267228489873</v>
+        <v>0.03354249365584505</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MMR015</t>
+          <t>ceel_waaq</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.2582684628355418</v>
+        <v>0.1076010094031325</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1907105385935072</v>
+        <v>0.3171842937978016</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01615119264976544</v>
+        <v>0.07359194826549859</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -2333,56 +5087,56 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MMR016</t>
+          <t>ceel_waaq</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.3828023730179007</v>
+        <v>0.124442962850372</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0555056310299999</v>
+        <v>0.23206340378198</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01354337208242568</v>
+        <v>0.1402926129101348</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.004823768991080496</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MMR016</t>
+          <t>dhuusamarreeb</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.4585172840911185</v>
+        <v>0.1176023912200242</v>
       </c>
       <c r="E34" t="n">
-        <v>0.07189981682447592</v>
+        <v>0.3870162228763092</v>
       </c>
       <c r="F34" t="n">
-        <v>0.01773152295407957</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -2391,85 +5145,85 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MMR017</t>
+          <t>dhuusamarreeb</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.4788760851442417</v>
+        <v>0.1694873023478678</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0229714686085648</v>
+        <v>0.325894083555799</v>
       </c>
       <c r="F35" t="n">
-        <v>0.008043324838377958</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.009581019292773744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MMR017</t>
+          <t>diinsoor</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.4491250648723692</v>
+        <v>0.2150318668268791</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01176276832541848</v>
+        <v>0.2389906612981428</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01964026891825431</v>
+        <v>0.1071561579920034</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.008908657798764678</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MMR018</t>
+          <t>diinsoor</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.4320124020924965</v>
+        <v>0.1714751494965252</v>
       </c>
       <c r="E37" t="n">
-        <v>0.03303326430604758</v>
+        <v>0.06461622783902859</v>
       </c>
       <c r="F37" t="n">
-        <v>0.02294872014284655</v>
+        <v>0.1938212787486561</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -2478,803 +5232,871 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MMR018</t>
+          <t>gaalkacyo</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>Protracted IDPs</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.4392122522481407</v>
+        <v>0.2085249369873511</v>
       </c>
       <c r="E38" t="n">
-        <v>0.05989780919184831</v>
+        <v>0.3366764742643457</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01289555201862025</v>
+        <v>0.007860716348736103</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>admin1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>pop_group</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ind_gender</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>MMR001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3466150889636668</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1815052674792447</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.02003054727847942</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MMR001</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.2615520618998717</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1718609605863884</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.01843607379234893</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MMR002</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.07710812153040193</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.358184428926369</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.01639712876440072</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.02184760495788655</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MMR002</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1139397958417208</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3389376019898054</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.01600016918791503</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.05310409991421493</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MMR002</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.004481048887285601</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MMR003</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.2476255325742885</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2330386403645681</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MMR003</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.2388853170786583</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.2773874861152604</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.003063023867225013</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>MMR004</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.2237149487749872</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.2793480645335099</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.01004102619364671</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MMR004</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.1765665771223166</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.2780308774063441</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.03229850596919572</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MMR005</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.04078552275909984</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.4461282933660454</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>MMR005</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0.03924791298023166</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.4738382708946232</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>MMR006</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0.3456312524401124</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.1457624803863208</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.0182442472726409</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>MMR006</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0.1852540760082953</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.2656564292044529</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.03945151468817776</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>MMR007</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0.3034703126483093</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.2424168370230906</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.006390668009684462</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>MMR007</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0.1704541751844879</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.2464643073187386</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.03080369981568922</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>MMR009</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0.1064232386170204</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.3122219077327464</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.07573214469506837</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.01885040021534832</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>MMR009</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0.1614147474011733</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.2448429224033506</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.06331398893172982</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.01720065000356275</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>MMR011</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0.3102302682953866</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.1386134452223212</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.08820900559650981</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.006706251434566659</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>MMR011</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0.2288783367968975</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.1631756989249971</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.05256375863264008</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.01162323509668103</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>MMR012</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0.206147148360068</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.2620286004572848</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.03660470899085407</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.003512750520440232</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>MMR012</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0.1336653681892122</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.3104316052289006</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0441022550405895</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.003507563212650617</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>MMR014</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0.2996357027161166</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.07958843426008412</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.07072915892000914</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>MMR014</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0.3366999318030421</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.1154058140939325</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.0979409582068156</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>MMR015</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0.2149630616230671</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.3297219545774392</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.04554077182584469</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.02117708562091071</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>MMR015</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0.1691695629200757</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.1730124381366896</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.01091922777672192</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.03549589751925132</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>gaalkacyo</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.2363692167224929</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.2105686556770741</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>galdogob</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.2707315604239922</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.2242196125104499</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.003408960376768496</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.002780175302008284</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>galdogob</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.2476800961704138</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.2210405884455109</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.02649711871653659</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.003641888054320011</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>garbahaarey</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.02805331380141458</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.6768703077617046</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.03877949327176015</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.01973736119609183</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>garbahaarey</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.01402665690070729</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.2225328670683215</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>garoowe</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.1708717322430919</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.4232025883853062</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>garoowe</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.1156268623292776</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.2902988170423244</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>hobyo</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.3462418132760976</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.1171086831599898</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>hobyo</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.4116762376652091</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.1249732658987034</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>jalalaqsi</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.03096938884447217</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>jalalaqsi</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.03674145281402946</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9322891583414983</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>kismaayo</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.2407872080366861</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.1840623494459611</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.05834693895758613</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.00476587174134147</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>kismaayo</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.2946760746212729</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.1669114563817069</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.04568422907410381</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.00476587174134147</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>laas_caanood</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0.2161922538497434</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.3329535438378183</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>laas_caanood</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0.1242637527868513</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.3051148441955722</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02147560533001504</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>luuq</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.09815563164107273</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.3951996656438207</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.01549699893691589</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>luuq</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.1149400613024289</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.3586357220174569</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.008785960229152418</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.008785960229152418</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>marka</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.03401671188811287</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.5002588061773586</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>marka</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.03004646741925635</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.4356780145152721</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>qansax_dheere</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.1286617002069865</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.5512514931293255</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0430075955830727</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>qansax_dheere</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.08025786685389673</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.1861911752637482</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.01063016896297039</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>taleex</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0.06227473348271883</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.2116574998302438</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.3891437495756094</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>taleex</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.1268907448903375</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.130848102125348</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.07918517009574252</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>waajid</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0.2857362058899206</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.1943762720876299</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>waajid</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0.329728960386518</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.1723286052918845</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.01782995634404686</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>wanla_weyn</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.3069308472211843</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.0561259123633012</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.1450050444660339</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.01563317390329572</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>wanla_weyn</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0.2001454176319657</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.07142278853100167</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.1819370749570286</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02279974092618888</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>xudun</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.4596199111234965</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>xudun</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Protracted IDPs</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.5403800888765034</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
